--- a/example_files/xlsx/2_results_consolidation/output/results_MC.xlsx
+++ b/example_files/xlsx/2_results_consolidation/output/results_MC.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="P8" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="P6" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="P3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="P4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P8" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P7</t>
+          <t>Detections in P4</t>
         </is>
       </c>
     </row>
@@ -461,11 +461,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Lama guanicoe</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>705</v>
+        <v>2482</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -477,11 +477,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Lama glama</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>571</v>
+        <v>1654</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -493,11 +493,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>219</v>
+        <v>1033</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -509,11 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Oncorhynchus clarkii</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>209</v>
+        <v>704</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -525,11 +525,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>443</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -541,11 +541,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Ateles paniscus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -557,11 +557,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alouatta guariba</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -573,13 +573,125 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mazama gouazoupira</t>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>221</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nycticorax nycticorax</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>139</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trinomys dimidiatus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>106</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>55</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pudu puda</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypus sabanicola </t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -806,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,7 +939,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P2</t>
+          <t>Detections in P3</t>
         </is>
       </c>
     </row>
@@ -837,11 +949,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>900</v>
+        <v>2469</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -853,11 +965,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Rhea americana</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>183</v>
+        <v>1859</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -869,11 +981,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Priodontes maximus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>1700</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -885,11 +997,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Canis aureus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>1111</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -901,11 +1013,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Didelphis albiventris</t>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -917,11 +1029,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>483</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -933,11 +1045,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ateles belzebuth </t>
+          <t>Bradypus tridactylus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>421</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -949,11 +1061,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -965,11 +1077,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Myocastor coypus</t>
+          <t>Speothos venaticus</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -981,11 +1093,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sardinella longiceps</t>
+          <t>Callicebus lugens</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -997,13 +1109,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canis lupus </t>
+          <t xml:space="preserve">Sphiggurus insidiosus </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>84</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dasypus yepesi</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>58</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>56</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Didelphis albiventris</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>52</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1018,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,7 +1231,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P6</t>
+          <t>Detections in P2</t>
         </is>
       </c>
     </row>
@@ -1049,11 +1241,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4195</v>
+        <v>900</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1065,11 +1257,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>736</v>
+        <v>183</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1081,11 +1273,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Priodontes maximus</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>728</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1097,11 +1289,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>471</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1113,11 +1305,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>461</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1129,11 +1321,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1145,11 +1337,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t xml:space="preserve">Ateles belzebuth </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1161,11 +1353,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1177,11 +1369,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Myocastor coypus</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1193,365 +1385,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Callithrix penicillata</t>
+          <t>Sardinella longiceps</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Columba livia</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>113</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>98</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>94</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rattus rattus</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>91</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Priodontes maximus</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>88</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rattus tanezumi</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>74</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Thraupis sayaca</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>65</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Callicebus donacophilus</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>45</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Callithrix kuhlii</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>42</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Canis familiaris</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>42</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cairina moschata</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>39</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>38</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>36</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Dasypus sabanicola</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>32</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Canis lupus</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>28</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>24</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>24</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Callithrix emiliae</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>21</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Chrysocyon brachyurus</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>19</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Nymphicus hollandicus</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>18</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1587,7 +1427,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P3</t>
+          <t>Detections in P7</t>
         </is>
       </c>
     </row>
@@ -1597,11 +1437,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Rhea americana</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2469</v>
+        <v>705</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1613,11 +1453,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1859</v>
+        <v>571</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1629,11 +1469,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1700</v>
+        <v>219</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1645,11 +1485,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1111</v>
+        <v>209</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1661,11 +1501,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zaedyus pichiy</t>
+          <t>Puma concolor</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1677,11 +1517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1693,11 +1533,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bradypus tridactylus</t>
+          <t>Alouatta guariba</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>421</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1709,157 +1549,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Mazama gouazoupira</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>202</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Callicebus lugens</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>197</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphiggurus insidiosus </t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>115</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>84</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dasypus yepesi</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>72</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>59</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>58</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>56</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1874,7 +1570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1895,7 +1591,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P4</t>
+          <t>Detections in P6</t>
         </is>
       </c>
     </row>
@@ -1905,11 +1601,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2482</v>
+        <v>4195</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1921,11 +1617,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1654</v>
+        <v>736</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1937,11 +1633,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1041</v>
+        <v>728</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1953,11 +1649,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oncorhynchus clarkii</t>
+          <t>Canis aureus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>704</v>
+        <v>471</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1969,11 +1665,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1985,11 +1681,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ateles paniscus</t>
+          <t>Callicebus cupreus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -2001,11 +1697,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -2021,7 +1717,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -2033,11 +1729,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Puma concolor</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -2049,11 +1745,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Callithrix penicillata</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -2065,11 +1761,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trinomys dimidiatus</t>
+          <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2081,11 +1777,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2097,11 +1793,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pudu puda</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -2113,11 +1809,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Rattus rattus</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -2129,11 +1825,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dasypus sabanicola </t>
+          <t>Priodontes maximus</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2145,13 +1841,253 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rattus tanezumi</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thraupis sayaca</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>65</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pecari tajacu</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>65</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Callicebus donacophilus</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Callithrix kuhlii</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>42</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Canis familiaris</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>42</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cairina moschata</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>39</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Speothos venaticus</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dasypus sabanicola</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>32</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>28</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Zaedyus pichiy</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>24</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Callithrix emiliae</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chrysocyon brachyurus</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>19</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nymphicus hollandicus</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>18</v>
+      </c>
+      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>

--- a/example_files/xlsx/2_results_consolidation/output/results_MC.xlsx
+++ b/example_files/xlsx/2_results_consolidation/output/results_MC.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P8" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P4</t>
+          <t>Detections in P6</t>
         </is>
       </c>
     </row>
@@ -461,11 +461,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2482</v>
+        <v>4195</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -477,11 +477,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1654</v>
+        <v>1269</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -493,11 +493,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Pitheciidae</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1033</v>
+        <v>736</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -509,11 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oncorhynchus clarkii</t>
+          <t>Coendou insidiosus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>704</v>
+        <v>451</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -525,11 +525,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Callicebus nigrifrons</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -541,11 +541,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ateles paniscus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -557,11 +557,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Lycalopex vettulus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -573,11 +573,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Rattus rattus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -589,11 +589,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Puma concolor</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -605,11 +605,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Callithrix penicillata</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -621,11 +621,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trinomys dimidiatus</t>
+          <t>Columba livia</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -637,11 +637,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -653,11 +653,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pudu puda</t>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -669,11 +669,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Cingulata</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -685,13 +685,157 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dasypus sabanicola </t>
+          <t>Pecari tajacu</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Thraupis sayaca</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>65</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Callithrix sp.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>63</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cairina moschata</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Canidae</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dasypus novemcinctus</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>32</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chrysocyon brachyurus</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nymphicus hollandicus</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>18</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -706,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +871,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P8</t>
+          <t>Detections in P4</t>
         </is>
       </c>
     </row>
@@ -737,11 +881,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Lama sp.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1851</v>
+        <v>4136</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -753,11 +897,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>529</v>
+        <v>1033</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -769,11 +913,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tamandua tetradactyla</t>
+          <t>Oncorhynchus clarkii</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>273</v>
+        <v>704</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -785,11 +929,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>204</v>
+        <v>443</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -801,11 +945,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Ateles paniscus</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -817,11 +961,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Coendou insidiosus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -833,11 +977,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alouatta guariba</t>
+          <t>Lycalopex vettulus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -849,11 +993,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Canis familiaris</t>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -865,11 +1009,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Didelphis marsupialis</t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -881,11 +1025,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Trinomys sp.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -897,13 +1041,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cervidae</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pitheciidae</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dasypus novemcinctus</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -913,494 +1105,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detections in P3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1859</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>514</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>483</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bradypus tridactylus</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>421</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>389</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>202</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Callicebus lugens</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>197</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphiggurus insidiosus </t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>115</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>84</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dasypus yepesi</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>72</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>58</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>56</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>52</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detections in P2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>183</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Priodontes maximus</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>125</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Canis lupus</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>58</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ateles belzebuth </t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>49</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cavia porcellus</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>37</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Myocastor coypus</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sardinella longiceps</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +1157,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Coendou insidiosus</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1485,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Lycalopex vettulus</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1517,7 +1221,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Sylvilagus brasiliensis</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1556,6 +1260,430 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detections in P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sus scrofa </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>598</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>598</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bradypus tridactylus</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>421</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>389</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canidae</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>202</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pitheciidae</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>197</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dasypus novemcinctus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lycalopex vettulus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>56</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Didelphis albiventris</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>52</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detections in P8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>529</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>382</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tamandua tetradactyla</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lycalopex vettulus</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Didelphis sp.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sus scrofa </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +1698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,7 +1719,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detections in P6</t>
+          <t>Detections in P2</t>
         </is>
       </c>
     </row>
@@ -1601,11 +1729,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4195</v>
+        <v>958</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1617,11 +1745,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Coendou insidiosus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>736</v>
+        <v>183</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1633,11 +1761,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cingulata</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>728</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1649,11 +1777,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>471</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1665,11 +1793,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>451</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1681,11 +1809,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1697,11 +1825,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1713,11 +1841,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Myocastor coypus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1729,365 +1857,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Sardinella sp.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Callithrix penicillata</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>118</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Columba livia</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>113</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>98</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>94</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rattus rattus</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>91</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Priodontes maximus</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>88</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rattus tanezumi</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Thraupis sayaca</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>65</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>65</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Callicebus donacophilus</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>45</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Callithrix kuhlii</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>42</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Canis familiaris</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>42</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cairina moschata</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>39</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>38</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>36</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Dasypus sabanicola</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>32</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Canis lupus</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>28</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>24</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>24</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Callithrix emiliae</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>21</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Chrysocyon brachyurus</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>19</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Nymphicus hollandicus</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>18</v>
-      </c>
-      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
